--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/AD/Bob's Class notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{C4457BB1-1A1F-4169-884D-0655B76000D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBA95437-70B6-46E6-A51D-AE3CE186CBAF}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{C4457BB1-1A1F-4169-884D-0655B76000D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9DC8AA8-A0D4-43E6-954B-1663A3A5EE54}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{33F58E9C-6EB6-4342-9B97-6A5B0655E13F}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="14370" xr2:uid="{33F58E9C-6EB6-4342-9B97-6A5B0655E13F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,115 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
-  <si>
-    <t>Module 1</t>
-  </si>
-  <si>
-    <t>Module 2</t>
-  </si>
-  <si>
-    <t>Module 3</t>
-  </si>
-  <si>
-    <t>Module 4</t>
-  </si>
-  <si>
-    <t>Module 5</t>
-  </si>
-  <si>
-    <t>Module 6</t>
-  </si>
-  <si>
-    <t>Module 7</t>
-  </si>
-  <si>
-    <t>Module 8</t>
-  </si>
-  <si>
-    <t>Module 9</t>
-  </si>
-  <si>
-    <t>Module 10</t>
-  </si>
-  <si>
-    <t>Module 11</t>
-  </si>
-  <si>
-    <t>Module 12</t>
-  </si>
-  <si>
-    <t>Module 13</t>
-  </si>
-  <si>
-    <t>Module 14</t>
-  </si>
-  <si>
-    <t>Module 15</t>
-  </si>
-  <si>
-    <t>Module 16</t>
-  </si>
-  <si>
-    <t>Module 17</t>
-  </si>
-  <si>
-    <t>Module 18</t>
-  </si>
-  <si>
-    <t>Introduction to Assurance and Data</t>
-  </si>
-  <si>
-    <t>The role of effective control environments, information systems and controls in producing reliable financial information</t>
-  </si>
-  <si>
-    <t>Data management</t>
-  </si>
-  <si>
-    <t>Evaluating the integrity of data for organisational decisions and auditor reliance</t>
-  </si>
-  <si>
-    <t>Acceptance and continuance decisions</t>
-  </si>
-  <si>
-    <t>Understanding the entity and risk assessment procedures</t>
-  </si>
-  <si>
-    <t>Responding to audit risk and adapting the audit plan</t>
-  </si>
-  <si>
-    <t>Specific risk areas and the impact on the audit approach</t>
-  </si>
-  <si>
-    <t>Documentation and quality management</t>
-  </si>
-  <si>
-    <t>Legislative developments, emerging matters and significant topics impacting the audit market</t>
-  </si>
-  <si>
-    <t>Evaluating the control environment and the operating effectiveness of control activities around data management and financial reporting</t>
-  </si>
-  <si>
-    <t>Substantive testing 1: Substantive analytical procedures</t>
-  </si>
-  <si>
-    <t>Substantive testing 2: Tests of detail</t>
-  </si>
-  <si>
-    <t>Substantive testing 3: Performing and concluding on substantive procedures</t>
-  </si>
-  <si>
-    <t>Evaluating audit evidence and completion procedures</t>
-  </si>
-  <si>
-    <t>The audit report and communications to those charged with governance</t>
-  </si>
-  <si>
-    <t>Audit engagements with extended scope</t>
-  </si>
-  <si>
-    <t>Non-statutory assurance and other engagements</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Module 1 - Introduction to Assurance and Data</t>
   </si>
@@ -204,10 +96,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,13 +130,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -549,213 +452,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852A9DF0-CB12-41F3-A9EE-CD21DC0D7985}">
-  <dimension ref="B2:D19"/>
+  <dimension ref="B2:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
         <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="28" documentId="8_{C4457BB1-1A1F-4169-884D-0655B76000D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9DC8AA8-A0D4-43E6-954B-1663A3A5EE54}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="14370" xr2:uid="{33F58E9C-6EB6-4342-9B97-6A5B0655E13F}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{33F58E9C-6EB6-4342-9B97-6A5B0655E13F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
   <dimension ref="B2:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
